--- a/Purchasing/EFS_BOM_tmp.xlsx
+++ b/Purchasing/EFS_BOM_tmp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="180">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -517,6 +517,9 @@
     <t xml:space="preserve">H624-016</t>
   </si>
   <si>
+    <t xml:space="preserve">Fasteners:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tooling:</t>
   </si>
   <si>
@@ -554,18 +557,22 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home depot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="\$#,##0.00\ ;[RED]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="168" formatCode="\$#,##0.00_);[RED]&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="\$#,##0_);[RED]&quot;($&quot;#,##0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -989,7 +996,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,6 +1109,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1138,6 +1149,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="37" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1170,6 +1185,18 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="24" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1210,6 +1237,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="17" fillId="11" borderId="4" xfId="37" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="11" borderId="4" xfId="37" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1238,10 +1269,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="2" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="11" borderId="4" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1255,6 +1282,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1357,10 +1392,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ88"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J74" activeCellId="0" sqref="J74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1377,9 +1412,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="1" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="95.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="173" min="16" style="0" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="174" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="174" min="16" style="0" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="175" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="14.42"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1418,7 +1453,6 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -1438,7 +1472,6 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
@@ -1563,7 +1596,7 @@
       <c r="P6" s="0"/>
       <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
-      <c r="AMJ6" s="0"/>
+      <c r="S6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
@@ -2076,6 +2109,7 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
@@ -2095,7 +2129,6 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
@@ -2114,7 +2147,7 @@
       <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="28" t="n">
+      <c r="F23" s="29" t="n">
         <v>9052000029</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -2123,7 +2156,7 @@
       <c r="H23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -2148,7 +2181,7 @@
       <c r="E24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -2157,7 +2190,7 @@
       <c r="H24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -2182,7 +2215,7 @@
       <c r="E25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="29" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -2191,7 +2224,7 @@
       <c r="H25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -2216,7 +2249,7 @@
       <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="31" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -2225,7 +2258,7 @@
       <c r="H26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -2250,7 +2283,7 @@
       <c r="E27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="31" t="s">
         <v>74</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -2259,7 +2292,7 @@
       <c r="H27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="29"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -2301,11 +2334,11 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" s="34" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="31" t="n">
+      <c r="B29" s="32" t="n">
         <v>17.99</v>
       </c>
       <c r="C29" s="21" t="n">
@@ -2315,10 +2348,10 @@
         <f aca="false">B29*C29</f>
         <v>17.99</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="21" t="s">
@@ -2328,19 +2361,18 @@
         <v>24</v>
       </c>
       <c r="I29" s="26"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="AMJ29" s="0"/>
-    </row>
-    <row r="30" s="34" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="35" t="n">
+      <c r="B30" s="36" t="n">
         <v>11.99</v>
       </c>
       <c r="C30" s="21" t="n">
@@ -2350,10 +2382,10 @@
         <f aca="false">B30*C30</f>
         <v>11.99</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G30" s="21" t="s">
@@ -2363,19 +2395,18 @@
         <v>24</v>
       </c>
       <c r="I30" s="26"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="AMJ30" s="0"/>
-    </row>
-    <row r="31" s="34" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="35" t="n">
+      <c r="B31" s="36" t="n">
         <v>14.95</v>
       </c>
       <c r="C31" s="21" t="n">
@@ -2388,7 +2419,7 @@
       <c r="E31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="31" t="s">
         <v>85</v>
       </c>
       <c r="G31" s="21" t="s">
@@ -2398,19 +2429,18 @@
         <v>24</v>
       </c>
       <c r="I31" s="26"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="AMJ31" s="0"/>
-    </row>
-    <row r="32" s="34" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="35" t="n">
+      <c r="B32" s="36" t="n">
         <v>13.95</v>
       </c>
       <c r="C32" s="21" t="n">
@@ -2420,7 +2450,7 @@
         <f aca="false">B32*C32</f>
         <v>13.95</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="33" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -2433,13 +2463,13 @@
         <v>24</v>
       </c>
       <c r="I32" s="26"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="AMJ32" s="0"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
@@ -2459,7 +2489,6 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
@@ -2671,7 +2700,6 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
@@ -2698,13 +2726,13 @@
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="37" t="s">
+      <c r="J41" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
       <c r="O41" s="9" t="n">
         <v>5</v>
       </c>
@@ -2734,13 +2762,13 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="37" t="s">
+      <c r="J42" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
       <c r="O42" s="9" t="n">
         <v>8</v>
       </c>
@@ -2770,13 +2798,13 @@
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="37" t="s">
+      <c r="J43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
       <c r="O43" s="9" t="n">
         <v>4</v>
       </c>
@@ -2806,13 +2834,13 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
       <c r="O44" s="9" t="n">
         <v>7</v>
       </c>
@@ -2842,13 +2870,13 @@
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="14"/>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
       <c r="O45" s="9" t="n">
         <v>5</v>
       </c>
@@ -2878,13 +2906,13 @@
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="37" t="s">
+      <c r="J46" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
       <c r="O46" s="9" t="n">
         <v>3</v>
       </c>
@@ -2914,13 +2942,13 @@
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="37" t="s">
+      <c r="J47" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
       <c r="O47" s="9" t="n">
         <v>3</v>
       </c>
@@ -2950,16 +2978,17 @@
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="37" t="s">
+      <c r="J48" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
       <c r="O48" s="9" t="n">
         <v>6</v>
       </c>
+      <c r="P48" s="28"/>
     </row>
     <row r="49" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
@@ -2979,7 +3008,6 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
@@ -3007,7 +3035,7 @@
       <c r="H50" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="29"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
@@ -3041,16 +3069,16 @@
       <c r="H51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="38"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="42" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="24" t="n">
@@ -3075,7 +3103,7 @@
       <c r="H52" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="38"/>
+      <c r="I52" s="40"/>
       <c r="J52" s="15" t="s">
         <v>124</v>
       </c>
@@ -3086,7 +3114,7 @@
       <c r="O52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="42" t="s">
         <v>125</v>
       </c>
       <c r="B53" s="24" t="n">
@@ -3156,7 +3184,7 @@
       <c r="O54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="42" t="s">
         <v>130</v>
       </c>
       <c r="B55" s="24" t="n">
@@ -3192,7 +3220,7 @@
       <c r="O55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="42" t="s">
         <v>121</v>
       </c>
       <c r="B56" s="24" t="n">
@@ -3217,7 +3245,7 @@
       <c r="H56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I56" s="38"/>
+      <c r="I56" s="40"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -3310,7 +3338,7 @@
       <c r="E59" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="43" t="s">
         <v>138</v>
       </c>
       <c r="G59" s="11" t="s">
@@ -3366,7 +3394,7 @@
       <c r="O60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="42" t="s">
         <v>125</v>
       </c>
       <c r="B61" s="24" t="n">
@@ -3468,7 +3496,7 @@
       <c r="O63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B64" s="24" t="n">
@@ -3502,7 +3530,7 @@
       <c r="O64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="42" t="s">
         <v>149</v>
       </c>
       <c r="B65" s="24" t="n">
@@ -3596,12 +3624,12 @@
         <v>24</v>
       </c>
       <c r="I67" s="26"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
@@ -3626,16 +3654,16 @@
       <c r="G68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="42" t="s">
+      <c r="H68" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="26"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
@@ -3660,16 +3688,16 @@
       <c r="G69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="42" t="s">
+      <c r="H69" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="26"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
@@ -3694,16 +3722,16 @@
       <c r="G70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="42" t="s">
+      <c r="H70" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="26"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="33"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
@@ -3728,16 +3756,16 @@
       <c r="G71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="42" t="s">
+      <c r="H71" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="26"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
@@ -3762,16 +3790,16 @@
       <c r="G72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="42" t="s">
+      <c r="H72" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="26"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
@@ -3796,16 +3824,16 @@
       <c r="G73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="42" t="s">
+      <c r="H73" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I73" s="26"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
@@ -3830,19 +3858,19 @@
       <c r="G74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="42" t="s">
+      <c r="H74" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I74" s="26"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="45" t="s">
         <v>163</v>
       </c>
       <c r="B75" s="24" t="n">
@@ -3858,7 +3886,7 @@
       <c r="E75" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="46" t="s">
         <v>164</v>
       </c>
       <c r="G75" s="11" t="s">
@@ -3868,12 +3896,13 @@
         <v>24</v>
       </c>
       <c r="I75" s="26"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="28"/>
     </row>
     <row r="76" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
@@ -3893,236 +3922,330 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
-      <c r="AMJ76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="23" t="s">
+    </row>
+    <row r="77" s="49" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="48"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+    </row>
+    <row r="78" s="49" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="48"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+    </row>
+    <row r="79" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="10" t="n">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="10" t="n">
         <v>28.8</v>
       </c>
-      <c r="C77" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" s="10" t="n">
-        <f aca="false">B77*C77</f>
+      <c r="C80" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="10" t="n">
+        <f aca="false">B80*C80</f>
         <v>28.8</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E80" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="18" t="s">
+      <c r="F80" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I77" s="45"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-    </row>
-    <row r="78" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="24" t="n">
+      <c r="I80" s="50"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="41"/>
+    </row>
+    <row r="81" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="24" t="n">
         <v>20.25</v>
       </c>
-      <c r="C78" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="10" t="n">
-        <f aca="false">B78*C78</f>
-        <v>20.25</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78" s="26"/>
-      <c r="J78" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
-    </row>
-    <row r="79" s="55" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C79" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D79" s="49" t="n">
-        <f aca="false">B79*C79</f>
-        <v>7.89</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="G79" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="I79" s="53"/>
-      <c r="J79" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="AMJ79" s="0"/>
-    </row>
-    <row r="80" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="AMJ80" s="0"/>
-    </row>
-    <row r="81" s="55" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="57" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C81" s="58" t="n">
+      <c r="C81" s="21" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="10" t="n">
         <f aca="false">B81*C81</f>
+        <v>20.25</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="26"/>
+      <c r="J81" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="41"/>
+      <c r="O81" s="41"/>
+    </row>
+    <row r="82" s="61" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="C82" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" s="54" t="n">
+        <f aca="false">B82*C82</f>
+        <v>7.89</v>
+      </c>
+      <c r="E82" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="58"/>
+      <c r="J82" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="60"/>
+    </row>
+    <row r="83" s="8" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" s="61" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="63" t="n">
         <v>0.99</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="C84" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="10" t="n">
+        <f aca="false">B84*C84</f>
+        <v>0.99</v>
+      </c>
+      <c r="E84" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="F81" s="59" t="n">
+      <c r="F84" s="65" t="n">
         <v>4237624</v>
       </c>
-      <c r="G81" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="61"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
-      <c r="O81" s="62"/>
-      <c r="AMJ81" s="0"/>
-    </row>
-    <row r="82" s="55" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="47" t="n">
+      <c r="G84" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+    </row>
+    <row r="85" s="61" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="52" t="n">
         <v>49.99</v>
       </c>
-      <c r="C82" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" s="49" t="n">
-        <f aca="false">B82*C82</f>
+      <c r="C85" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="54" t="n">
+        <f aca="false">B85*C85</f>
         <v>49.99</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E85" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="G82" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="52" t="s">
+      <c r="F85" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
-      <c r="AMJ82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="65" t="n">
+      <c r="I85" s="58"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+    </row>
+    <row r="86" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="70" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>2382.996</v>
-      </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-    </row>
-    <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
-      <c r="C88" s="0"/>
-      <c r="D88" s="0"/>
-      <c r="F88" s="67"/>
+        <v>3116.996</v>
+      </c>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+    </row>
+    <row r="90" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="0"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="73" t="n">
+        <v>180</v>
+      </c>
+      <c r="E90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="73" t="n">
+        <v>135</v>
+      </c>
+      <c r="E91" s="0"/>
+      <c r="F91" s="74"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72" t="n">
+        <v>44</v>
+      </c>
+      <c r="E92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72" t="n">
+        <v>125</v>
+      </c>
+      <c r="E93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72" t="n">
+        <v>250</v>
+      </c>
+      <c r="E94" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="78">
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="J3:O3"/>
@@ -4190,22 +4313,17 @@
     <mergeCell ref="J65:O65"/>
     <mergeCell ref="J66:O66"/>
     <mergeCell ref="J67:O67"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="J73:O73"/>
-    <mergeCell ref="J74:O74"/>
     <mergeCell ref="J75:O75"/>
     <mergeCell ref="A76:O76"/>
     <mergeCell ref="J77:O77"/>
     <mergeCell ref="J78:O78"/>
-    <mergeCell ref="J79:O79"/>
-    <mergeCell ref="A80:O80"/>
+    <mergeCell ref="A79:O79"/>
+    <mergeCell ref="J80:O80"/>
     <mergeCell ref="J81:O81"/>
     <mergeCell ref="J82:O82"/>
-    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="J85:O85"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" location="90967A160" display="LINK"/>
@@ -4243,10 +4361,10 @@
     <hyperlink ref="H66" r:id="rId33" location="3795k13/=17ddb9t" display="LINK"/>
     <hyperlink ref="H67" r:id="rId34" display="LINK"/>
     <hyperlink ref="H75" r:id="rId35" display="LINK"/>
-    <hyperlink ref="H77" r:id="rId36" display="LINK"/>
-    <hyperlink ref="H78" r:id="rId37" location="8838a11/=17e9re4" display="LINK"/>
-    <hyperlink ref="H79" r:id="rId38" location="91259a174/=17ecsck" display="LINK"/>
-    <hyperlink ref="H82" r:id="rId39" display="LINK"/>
+    <hyperlink ref="H80" r:id="rId36" display="LINK"/>
+    <hyperlink ref="H81" r:id="rId37" location="8838a11/=17e9re4" display="LINK"/>
+    <hyperlink ref="H82" r:id="rId38" location="91259a174/=17ecsck" display="LINK"/>
+    <hyperlink ref="H85" r:id="rId39" display="LINK"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
